--- a/country_info.xlsx
+++ b/country_info.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA97306-EDFB-4D62-B04A-1779839D3C56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9278CE-AB88-46C4-B627-7E83E650554C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>perc female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -403,7 +411,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +427,14 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -436,8 +450,16 @@
       <c r="E2">
         <v>50.658999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f>E2/100</f>
+        <v>0.50658999999999998</v>
+      </c>
+      <c r="G2">
+        <f>1-F2</f>
+        <v>0.49341000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -453,8 +475,16 @@
       <c r="E3">
         <v>50.503999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">E3/100</f>
+        <v>0.50503999999999993</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">1-F3</f>
+        <v>0.49496000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -470,8 +500,16 @@
       <c r="E4">
         <v>50.183</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.50183</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.49817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -487,8 +525,16 @@
       <c r="E5">
         <v>51.165999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.51166</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.48834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -504,8 +550,16 @@
       <c r="E6">
         <v>50.991999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.50991999999999993</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.49008000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -520,6 +574,14 @@
       </c>
       <c r="E7">
         <v>51.055999999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.51056000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.48943999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/country_info.xlsx
+++ b/country_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9278CE-AB88-46C4-B627-7E83E650554C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6AB1C2-0D14-4B9A-97EE-49E0DCAD0E56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>prop_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean male weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean female weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -409,9 +417,11 @@
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +443,14 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,8 +474,14 @@
         <f>1-F2</f>
         <v>0.49341000000000002</v>
       </c>
+      <c r="H2">
+        <v>85</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -483,8 +505,14 @@
         <f t="shared" ref="G3:G7" si="1">1-F3</f>
         <v>0.49496000000000007</v>
       </c>
+      <c r="H3">
+        <v>90.6</v>
+      </c>
+      <c r="I3">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -508,8 +536,14 @@
         <f t="shared" si="1"/>
         <v>0.49817</v>
       </c>
+      <c r="H4">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>71.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -533,8 +567,14 @@
         <f t="shared" si="1"/>
         <v>0.48834</v>
       </c>
+      <c r="H5">
+        <v>69.5</v>
+      </c>
+      <c r="I5">
+        <v>54.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -558,8 +598,14 @@
         <f t="shared" si="1"/>
         <v>0.49008000000000007</v>
       </c>
+      <c r="H6">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I6">
+        <v>74.099999999999994</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -582,6 +628,12 @@
       <c r="G7">
         <f t="shared" si="1"/>
         <v>0.48943999999999999</v>
+      </c>
+      <c r="H7">
+        <v>84.7</v>
+      </c>
+      <c r="I7">
+        <v>71.400000000000006</v>
       </c>
     </row>
   </sheetData>
